--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -154,10 +154,6 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1581,16 +1577,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1598,10 +1594,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1612,28 +1608,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1683,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1712,10 +1708,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1726,25 +1722,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1795,19 +1791,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1824,10 +1820,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1838,28 +1834,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1909,19 +1905,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -1938,10 +1934,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1952,7 +1948,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -1964,16 +1960,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1999,43 +1995,43 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2052,21 +2048,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2078,16 +2074,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2137,28 +2133,28 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2166,14 +2162,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2192,16 +2188,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2251,7 +2247,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2272,7 +2268,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2280,14 +2276,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2306,16 +2302,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2365,7 +2361,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2377,7 +2373,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2386,7 +2382,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2394,14 +2390,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2414,25 +2410,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2481,7 +2477,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2493,7 +2489,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2502,7 +2498,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2510,14 +2506,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2533,22 +2529,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2597,7 +2593,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2609,31 +2605,31 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2652,19 +2648,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2713,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2725,16 +2721,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2742,10 +2738,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2753,32 +2749,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2803,67 +2799,67 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2879,19 +2875,19 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2917,14 +2913,14 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
@@ -2941,7 +2937,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -2953,27 +2949,27 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2984,7 +2980,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -2996,13 +2992,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3053,28 +3049,28 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3082,14 +3078,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3108,16 +3104,16 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3155,19 +3151,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3179,7 +3175,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3188,7 +3184,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3196,10 +3192,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3219,22 +3215,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3283,7 +3279,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3295,16 +3291,16 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3312,10 +3308,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3326,7 +3322,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3338,13 +3334,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3395,28 +3391,28 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3424,14 +3420,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3450,16 +3446,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3497,19 +3493,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3521,7 +3517,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3530,7 +3526,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3538,10 +3534,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3552,31 +3548,31 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3625,28 +3621,28 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3654,10 +3650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3668,28 +3664,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3739,28 +3735,28 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3768,10 +3764,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3782,29 +3778,29 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -3853,28 +3849,28 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3882,10 +3878,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3896,29 +3892,29 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -3967,28 +3963,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3996,10 +3992,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4010,31 +4006,31 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4083,28 +4079,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4112,10 +4108,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4126,31 +4122,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4199,28 +4195,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4228,39 +4224,39 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4287,96 +4283,96 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4425,74 +4421,74 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4541,74 +4537,74 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4657,74 +4653,74 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4773,43 +4769,43 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4825,22 +4821,22 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4889,7 +4885,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4901,31 +4897,31 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4941,22 +4937,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5005,7 +5001,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5017,27 +5013,27 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5060,19 +5056,19 @@
         <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5121,7 +5117,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5133,16 +5129,16 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5150,14 +5146,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5176,19 +5172,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5237,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5249,16 +5245,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5266,10 +5262,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5292,16 +5288,16 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5351,7 +5347,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5363,7 +5359,7 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -5372,7 +5368,7 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5380,14 +5376,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5403,22 +5399,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5467,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5479,16 +5475,16 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5496,10 +5492,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5510,7 +5506,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5522,13 +5518,13 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5579,28 +5575,28 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5608,14 +5604,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5634,16 +5630,16 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5693,7 +5689,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5705,7 +5701,7 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>41</v>
@@ -5714,7 +5710,7 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5722,14 +5718,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5742,25 +5738,25 @@
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -5809,7 +5805,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5821,7 +5817,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5830,7 +5826,7 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5838,10 +5834,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5852,7 +5848,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -5864,19 +5860,19 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5925,19 +5921,19 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -5946,7 +5942,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5954,10 +5950,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5965,28 +5961,28 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="K40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6037,19 +6033,19 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6058,7 +6054,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6066,21 +6062,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6092,17 +6088,17 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6151,28 +6147,28 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6180,10 +6176,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6206,16 +6202,16 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6241,14 +6237,14 @@
         <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6265,7 +6261,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6277,16 +6273,16 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6294,10 +6290,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6320,19 +6316,19 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6381,7 +6377,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6393,16 +6389,16 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
